--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="17820" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17820" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
